--- a/Vookup.xlsx
+++ b/Vookup.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240"/>
+    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Exact Match" sheetId="1" r:id="rId1"/>
+    <sheet name="Appropiate Match" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="table">Sheet1!$A$1:$U$249</definedName>
+    <definedName name="table">'Exact Match'!$A$1:$U$249</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="833">
   <si>
     <t>Order Date</t>
   </si>
@@ -2503,15 +2503,31 @@
   </si>
   <si>
     <t>VLOOKUP</t>
+  </si>
+  <si>
+    <t>Discount % Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount % </t>
+  </si>
+  <si>
+    <t>Discount Calculator</t>
+  </si>
+  <si>
+    <t>Sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -2573,7 +2589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2596,13 +2612,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2633,6 +2675,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2933,7 +2984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
@@ -3522,15 +3573,15 @@
         <v>Pennsylvania</v>
       </c>
       <c r="AB8" s="8" t="str">
-        <f>VLOOKUP($Y8, table, 15, FALSE)</f>
+        <f t="shared" ref="AB8:AB25" si="0">VLOOKUP($Y8, table, 15, FALSE)</f>
         <v>Furnishings</v>
       </c>
       <c r="AC8" s="8">
-        <f>VLOOKUP($Y8, table, 17, FALSE)</f>
+        <f t="shared" ref="AC8:AC25" si="1">VLOOKUP($Y8, table, 17, FALSE)</f>
         <v>124.20000000000002</v>
       </c>
       <c r="AD8" s="8">
-        <f>VLOOKUP($Y8, table, 18, FALSE)</f>
+        <f t="shared" ref="AD8:AD25" si="2">VLOOKUP($Y8, table, 18, FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -3602,23 +3653,23 @@
         <v>10046</v>
       </c>
       <c r="Z9" s="8" t="str">
-        <f t="shared" ref="Z9:Z25" si="0">VLOOKUP(Y9, A2:U250, 6, FALSE)</f>
+        <f t="shared" ref="Z9:Z25" si="3">VLOOKUP(Y9, A2:U250, 6, FALSE)</f>
         <v>Odella Nelson</v>
       </c>
       <c r="AA9" s="8" t="str">
-        <f>VLOOKUP(Y9, table, 10, FALSE)</f>
+        <f t="shared" ref="AA9:AA25" si="4">VLOOKUP(Y9, table, 10, FALSE)</f>
         <v>Minnesota</v>
       </c>
       <c r="AB9" s="8" t="str">
-        <f>VLOOKUP($Y9, table, 15, FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Binders</v>
       </c>
       <c r="AC9" s="8">
-        <f>VLOOKUP($Y9, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>17.46</v>
       </c>
       <c r="AD9" s="8">
-        <f>VLOOKUP($Y9, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3690,23 +3741,23 @@
         <v>10049</v>
       </c>
       <c r="Z10" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Lena Hernandez</v>
+      </c>
+      <c r="AA10" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Delaware</v>
+      </c>
+      <c r="AB10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Lena Hernandez</v>
-      </c>
-      <c r="AA10" s="8" t="str">
-        <f>VLOOKUP(Y10, table, 10, FALSE)</f>
-        <v>Delaware</v>
-      </c>
-      <c r="AB10" s="8" t="str">
-        <f>VLOOKUP($Y10, table, 15, FALSE)</f>
         <v>Phones</v>
       </c>
       <c r="AC10" s="8">
-        <f>VLOOKUP($Y10, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>21.8</v>
       </c>
       <c r="AD10" s="8">
-        <f>VLOOKUP($Y10, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3778,23 +3829,23 @@
         <v>10054</v>
       </c>
       <c r="Z11" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Janet Molinari</v>
+      </c>
+      <c r="AA11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>New York</v>
+      </c>
+      <c r="AB11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Janet Molinari</v>
-      </c>
-      <c r="AA11" s="8" t="str">
-        <f>VLOOKUP(Y11, table, 10, FALSE)</f>
-        <v>New York</v>
-      </c>
-      <c r="AB11" s="8" t="str">
-        <f>VLOOKUP($Y11, table, 15, FALSE)</f>
         <v>Fasteners</v>
       </c>
       <c r="AC11" s="8">
-        <f>VLOOKUP($Y11, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>15.260000000000002</v>
       </c>
       <c r="AD11" s="8">
-        <f>VLOOKUP($Y11, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -3866,23 +3917,23 @@
         <v>10056</v>
       </c>
       <c r="Z12" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Ted Butterfield</v>
+      </c>
+      <c r="AA12" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>New York</v>
+      </c>
+      <c r="AB12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Ted Butterfield</v>
-      </c>
-      <c r="AA12" s="8" t="str">
-        <f>VLOOKUP(Y12, table, 10, FALSE)</f>
-        <v>New York</v>
-      </c>
-      <c r="AB12" s="8" t="str">
-        <f>VLOOKUP($Y12, table, 15, FALSE)</f>
         <v>Storage</v>
       </c>
       <c r="AC12" s="8">
-        <f>VLOOKUP($Y12, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>208.56</v>
       </c>
       <c r="AD12" s="8">
-        <f>VLOOKUP($Y12, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -3954,23 +4005,23 @@
         <v>10059</v>
       </c>
       <c r="Z13" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Ted Butterfield</v>
+      </c>
+      <c r="AA13" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>New York</v>
+      </c>
+      <c r="AB13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Ted Butterfield</v>
-      </c>
-      <c r="AA13" s="8" t="str">
-        <f>VLOOKUP(Y13, table, 10, FALSE)</f>
-        <v>New York</v>
-      </c>
-      <c r="AB13" s="8" t="str">
-        <f>VLOOKUP($Y13, table, 15, FALSE)</f>
         <v>Paper</v>
       </c>
       <c r="AC13" s="8">
-        <f>VLOOKUP($Y13, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>14.56</v>
       </c>
       <c r="AD13" s="8">
-        <f>VLOOKUP($Y13, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -4042,23 +4093,23 @@
         <v>10065</v>
       </c>
       <c r="Z14" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Kunst Miller</v>
+      </c>
+      <c r="AA14" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>California</v>
+      </c>
+      <c r="AB14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Kunst Miller</v>
-      </c>
-      <c r="AA14" s="8" t="str">
-        <f>VLOOKUP(Y14, table, 10, FALSE)</f>
-        <v>California</v>
-      </c>
-      <c r="AB14" s="8" t="str">
-        <f>VLOOKUP($Y14, table, 15, FALSE)</f>
         <v>Paper</v>
       </c>
       <c r="AC14" s="8">
-        <f>VLOOKUP($Y14, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>146.72999999999999</v>
       </c>
       <c r="AD14" s="8">
-        <f>VLOOKUP($Y14, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4130,23 +4181,23 @@
         <v>10067</v>
       </c>
       <c r="Z15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Paul Stevenson</v>
+      </c>
+      <c r="AA15" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Illinois</v>
+      </c>
+      <c r="AB15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Paul Stevenson</v>
-      </c>
-      <c r="AA15" s="8" t="str">
-        <f>VLOOKUP(Y15, table, 10, FALSE)</f>
-        <v>Illinois</v>
-      </c>
-      <c r="AB15" s="8" t="str">
-        <f>VLOOKUP($Y15, table, 15, FALSE)</f>
         <v>Chairs</v>
       </c>
       <c r="AC15" s="8">
-        <f>VLOOKUP($Y15, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>213.11499999999998</v>
       </c>
       <c r="AD15" s="8">
-        <f>VLOOKUP($Y15, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -4218,23 +4269,23 @@
         <v>10070</v>
       </c>
       <c r="Z16" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Karen Daniels</v>
+      </c>
+      <c r="AA16" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Virginia</v>
+      </c>
+      <c r="AB16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Karen Daniels</v>
-      </c>
-      <c r="AA16" s="8" t="str">
-        <f>VLOOKUP(Y16, table, 10, FALSE)</f>
-        <v>Virginia</v>
-      </c>
-      <c r="AB16" s="8" t="str">
-        <f>VLOOKUP($Y16, table, 15, FALSE)</f>
         <v>Paper</v>
       </c>
       <c r="AC16" s="8">
-        <f>VLOOKUP($Y16, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>75.88</v>
       </c>
       <c r="AD16" s="8">
-        <f>VLOOKUP($Y16, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -4306,23 +4357,23 @@
         <v>10089</v>
       </c>
       <c r="Z17" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Gary Mitchum</v>
+      </c>
+      <c r="AA17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Texas</v>
+      </c>
+      <c r="AB17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Gary Mitchum</v>
-      </c>
-      <c r="AA17" s="8" t="str">
-        <f>VLOOKUP(Y17, table, 10, FALSE)</f>
-        <v>Texas</v>
-      </c>
-      <c r="AB17" s="8" t="str">
-        <f>VLOOKUP($Y17, table, 15, FALSE)</f>
         <v>Storage</v>
       </c>
       <c r="AC17" s="8">
-        <f>VLOOKUP($Y17, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>158.36800000000002</v>
       </c>
       <c r="AD17" s="8">
-        <f>VLOOKUP($Y17, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -4394,23 +4445,23 @@
         <v>10095</v>
       </c>
       <c r="Z18" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Karl Braun</v>
+      </c>
+      <c r="AA18" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Minnesota</v>
+      </c>
+      <c r="AB18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Karl Braun</v>
-      </c>
-      <c r="AA18" s="8" t="str">
-        <f>VLOOKUP(Y18, table, 10, FALSE)</f>
-        <v>Minnesota</v>
-      </c>
-      <c r="AB18" s="8" t="str">
-        <f>VLOOKUP($Y18, table, 15, FALSE)</f>
         <v>Binders</v>
       </c>
       <c r="AC18" s="8">
-        <f>VLOOKUP($Y18, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>32.96</v>
       </c>
       <c r="AD18" s="8">
-        <f>VLOOKUP($Y18, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -4482,23 +4533,23 @@
         <v>10101</v>
       </c>
       <c r="Z19" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Rick Bensley</v>
+      </c>
+      <c r="AA19" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Illinois</v>
+      </c>
+      <c r="AB19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Rick Bensley</v>
-      </c>
-      <c r="AA19" s="8" t="str">
-        <f>VLOOKUP(Y19, table, 10, FALSE)</f>
-        <v>Illinois</v>
-      </c>
-      <c r="AB19" s="8" t="str">
-        <f>VLOOKUP($Y19, table, 15, FALSE)</f>
         <v>Accessories</v>
       </c>
       <c r="AC19" s="8">
-        <f>VLOOKUP($Y19, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>95.976000000000013</v>
       </c>
       <c r="AD19" s="8">
-        <f>VLOOKUP($Y19, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4570,23 +4621,23 @@
         <v>10109</v>
       </c>
       <c r="Z20" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Janet Martin</v>
+      </c>
+      <c r="AA20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>North Carolina</v>
+      </c>
+      <c r="AB20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Janet Martin</v>
-      </c>
-      <c r="AA20" s="8" t="str">
-        <f>VLOOKUP(Y20, table, 10, FALSE)</f>
-        <v>North Carolina</v>
-      </c>
-      <c r="AB20" s="8" t="str">
-        <f>VLOOKUP($Y20, table, 15, FALSE)</f>
         <v>Art</v>
       </c>
       <c r="AC20" s="8">
-        <f>VLOOKUP($Y20, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3.3040000000000003</v>
       </c>
       <c r="AD20" s="8">
-        <f>VLOOKUP($Y20, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4658,23 +4709,23 @@
         <v>10125</v>
       </c>
       <c r="Z21" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Alan Dominguez</v>
+      </c>
+      <c r="AA21" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Texas</v>
+      </c>
+      <c r="AB21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Alan Dominguez</v>
-      </c>
-      <c r="AA21" s="8" t="str">
-        <f>VLOOKUP(Y21, table, 10, FALSE)</f>
-        <v>Texas</v>
-      </c>
-      <c r="AB21" s="8" t="str">
-        <f>VLOOKUP($Y21, table, 15, FALSE)</f>
         <v>Chairs</v>
       </c>
       <c r="AC21" s="8">
-        <f>VLOOKUP($Y21, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>600.55799999999999</v>
       </c>
       <c r="AD21" s="8">
-        <f>VLOOKUP($Y21, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -4746,23 +4797,23 @@
         <v>10129</v>
       </c>
       <c r="Z22" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Lindsay Shagiari</v>
+      </c>
+      <c r="AA22" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>California</v>
+      </c>
+      <c r="AB22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Lindsay Shagiari</v>
-      </c>
-      <c r="AA22" s="8" t="str">
-        <f>VLOOKUP(Y22, table, 10, FALSE)</f>
-        <v>California</v>
-      </c>
-      <c r="AB22" s="8" t="str">
-        <f>VLOOKUP($Y22, table, 15, FALSE)</f>
         <v>Chairs</v>
       </c>
       <c r="AC22" s="8">
-        <f>VLOOKUP($Y22, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>81.424000000000007</v>
       </c>
       <c r="AD22" s="8">
-        <f>VLOOKUP($Y22, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -4834,23 +4885,23 @@
         <v>10150</v>
       </c>
       <c r="Z23" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Justin Ellison</v>
+      </c>
+      <c r="AA23" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Wisconsin</v>
+      </c>
+      <c r="AB23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Justin Ellison</v>
-      </c>
-      <c r="AA23" s="8" t="str">
-        <f>VLOOKUP(Y23, table, 10, FALSE)</f>
-        <v>Wisconsin</v>
-      </c>
-      <c r="AB23" s="8" t="str">
-        <f>VLOOKUP($Y23, table, 15, FALSE)</f>
         <v>Chairs</v>
       </c>
       <c r="AC23" s="8">
-        <f>VLOOKUP($Y23, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1951.84</v>
       </c>
       <c r="AD23" s="8">
-        <f>VLOOKUP($Y23, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -4922,23 +4973,23 @@
         <v>10169</v>
       </c>
       <c r="Z24" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Becky Martin</v>
+      </c>
+      <c r="AA24" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Texas</v>
+      </c>
+      <c r="AB24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Becky Martin</v>
-      </c>
-      <c r="AA24" s="8" t="str">
-        <f>VLOOKUP(Y24, table, 10, FALSE)</f>
-        <v>Texas</v>
-      </c>
-      <c r="AB24" s="8" t="str">
-        <f>VLOOKUP($Y24, table, 15, FALSE)</f>
         <v>Art</v>
       </c>
       <c r="AC24" s="8">
-        <f>VLOOKUP($Y24, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>32.064</v>
       </c>
       <c r="AD24" s="8">
-        <f>VLOOKUP($Y24, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -5010,23 +5061,23 @@
         <v>10190</v>
       </c>
       <c r="Z25" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Mark Packer</v>
+      </c>
+      <c r="AA25" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>New York</v>
+      </c>
+      <c r="AB25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Mark Packer</v>
-      </c>
-      <c r="AA25" s="8" t="str">
-        <f>VLOOKUP(Y25, table, 10, FALSE)</f>
-        <v>New York</v>
-      </c>
-      <c r="AB25" s="8" t="str">
-        <f>VLOOKUP($Y25, table, 15, FALSE)</f>
         <v>Bookcases</v>
       </c>
       <c r="AC25" s="8">
-        <f>VLOOKUP($Y25, table, 17, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>899.13600000000008</v>
       </c>
       <c r="AD25" s="8">
-        <f>VLOOKUP($Y25, table, 18, FALSE)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -19597,12 +19648,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C6:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:8" ht="18">
+      <c r="C6" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="3:8" ht="18">
+      <c r="C8" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="14">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="3:8" ht="18">
+      <c r="C10" s="14">
+        <v>50000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="14">
+        <v>100000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="G11" s="14">
+        <v>50000</v>
+      </c>
+      <c r="H11" s="3">
+        <f>VLOOKUP(G11, C8:D14, 2, TRUE)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="14">
+        <v>5000000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="14">
+        <v>10000000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G8:H8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
